--- a/result/liter_results/52w_global_model_results.xlsx
+++ b/result/liter_results/52w_global_model_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Model Name</t>
   </si>
@@ -58,15 +58,15 @@
     <t>DecisionTreeRegressor</t>
   </si>
   <si>
+    <t>ExtraTreeRegressor</t>
+  </si>
+  <si>
     <t>BayesianRidge</t>
   </si>
   <si>
     <t>KNeighborsRegressor</t>
   </si>
   <si>
-    <t>ExtraTreeRegressor</t>
-  </si>
-  <si>
     <t>Lasso</t>
   </si>
   <si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>StandardScaler</t>
-  </si>
-  <si>
-    <t>QuantileTransformer</t>
   </si>
   <si>
     <t>RobustScaler</t>
@@ -504,7 +501,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -515,22 +512,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1824095437175318</v>
+        <v>0.1823398509294921</v>
       </c>
       <c r="C3">
-        <v>223609.0224856046</v>
+        <v>223616.3198072623</v>
       </c>
       <c r="D3">
-        <v>1.574661216674014</v>
+        <v>1.574711421026846</v>
       </c>
       <c r="E3">
-        <v>1.655758857727051</v>
+        <v>1.570625066757202</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -556,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -582,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -608,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -622,19 +619,19 @@
         <v>43.93637871860499</v>
       </c>
       <c r="C7">
-        <v>687559.4038461539</v>
+        <v>706589.4326923077</v>
       </c>
       <c r="D7">
-        <v>3.431456886393162</v>
+        <v>3.497642664497349</v>
       </c>
       <c r="E7">
-        <v>11.69920039176941</v>
+        <v>11.25408387184143</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -645,25 +642,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>44.98453264219784</v>
+        <v>43.93637871860499</v>
       </c>
       <c r="C8">
-        <v>587812.8277570022</v>
+        <v>692427.8846153846</v>
       </c>
       <c r="D8">
-        <v>4.552069408609583</v>
+        <v>3.43389014830013</v>
       </c>
       <c r="E8">
-        <v>0.6945633888244629</v>
+        <v>11.2261004447937</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +668,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>45.69172976727411</v>
+        <v>44.98453264391322</v>
       </c>
       <c r="C9">
-        <v>588558.1641674332</v>
+        <v>587812.8277159224</v>
       </c>
       <c r="D9">
-        <v>2.945727804807715</v>
+        <v>4.552069408537242</v>
       </c>
       <c r="E9">
-        <v>11.47708201408386</v>
+        <v>0.6276826858520508</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +694,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>48.71855001530582</v>
+        <v>47.14690406974589</v>
       </c>
       <c r="C10">
-        <v>676861.0961538461</v>
+        <v>628077.8326711725</v>
       </c>
       <c r="D10">
-        <v>3.407734403418473</v>
+        <v>3.009158424376986</v>
       </c>
       <c r="E10">
-        <v>13.76611542701721</v>
+        <v>11.21123123168945</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +720,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>50.51524433459759</v>
+        <v>51.45485005163925</v>
       </c>
       <c r="C11">
-        <v>492476.5559706747</v>
+        <v>473330.9948886893</v>
       </c>
       <c r="D11">
-        <v>4.188132781857258</v>
+        <v>4.377904147429819</v>
       </c>
       <c r="E11">
-        <v>0.2527604103088379</v>
+        <v>0.3766131401062012</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/result/liter_results/52w_global_model_results.xlsx
+++ b/result/liter_results/52w_global_model_results.xlsx
@@ -14,20 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Model Name</t>
   </si>
   <si>
-    <t>MAPE</t>
+    <t>MAPE Score</t>
+  </si>
+  <si>
+    <t>MAPE 52</t>
+  </si>
+  <si>
+    <t>MAPE 1</t>
   </si>
   <si>
     <t>MAE</t>
   </si>
   <si>
-    <t>MAPE Score</t>
-  </si>
-  <si>
     <t>Execution Time</t>
   </si>
   <si>
@@ -40,58 +43,58 @@
     <t>Lag</t>
   </si>
   <si>
+    <t>GaussianProcessRegressor</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor</t>
+  </si>
+  <si>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
     <t>RandomForestRegressor</t>
   </si>
   <si>
-    <t>GaussianProcessRegressor</t>
-  </si>
-  <si>
     <t>PassiveAggressiveRegressor</t>
   </si>
   <si>
+    <t>ExtraTreeRegressor</t>
+  </si>
+  <si>
+    <t>BayesianRidge</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
     <t>LinearRegression</t>
   </si>
   <si>
-    <t>Ridge</t>
-  </si>
-  <si>
-    <t>DecisionTreeRegressor</t>
-  </si>
-  <si>
-    <t>ExtraTreeRegressor</t>
-  </si>
-  <si>
-    <t>BayesianRidge</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor</t>
-  </si>
-  <si>
-    <t>Lasso</t>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>RobustScaler</t>
   </si>
   <si>
     <t>No scaling</t>
   </si>
   <si>
-    <t>MinMaxScaler</t>
-  </si>
-  <si>
-    <t>StandardScaler</t>
-  </si>
-  <si>
-    <t>RobustScaler</t>
-  </si>
-  <si>
-    <t>F_regression</t>
+    <t>QuantileTransformer</t>
   </si>
   <si>
     <t>Mutual_info_regression</t>
   </si>
   <si>
+    <t>Feature Importance</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
     <t>No scoring</t>
-  </si>
-  <si>
-    <t>Feature Importance</t>
   </si>
 </sst>
 </file>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,264 +483,297 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.07602941031803065</v>
+        <v>1.574628892755197</v>
       </c>
       <c r="C2">
-        <v>4677134.935576924</v>
+        <v>0.1824544336745304</v>
       </c>
       <c r="D2">
-        <v>50.95000378908441</v>
+        <v>3.341983684007407</v>
       </c>
       <c r="E2">
-        <v>8.626021862030029</v>
-      </c>
-      <c r="F2" t="s">
+        <v>223604.3199339709</v>
+      </c>
+      <c r="F2">
+        <v>4.540753126144409</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2.893909191378107</v>
+      </c>
+      <c r="C3">
+        <v>47.05211833668776</v>
+      </c>
+      <c r="D3">
+        <v>91.80333289434863</v>
+      </c>
+      <c r="E3">
+        <v>605903.1899940306</v>
+      </c>
+      <c r="F3">
+        <v>18.66356444358826</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3.116949309659455</v>
+      </c>
+      <c r="C4">
+        <v>43.93637871860499</v>
+      </c>
+      <c r="D4">
+        <v>106.1119277807987</v>
+      </c>
+      <c r="E4">
+        <v>609084.8653846154</v>
+      </c>
+      <c r="F4">
+        <v>27.36924839019775</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3.141416506397972</v>
+      </c>
+      <c r="C5">
+        <v>43.62119249685059</v>
+      </c>
+      <c r="D5">
+        <v>93.57300530531745</v>
+      </c>
+      <c r="E5">
+        <v>673007.7728846155</v>
+      </c>
+      <c r="F5">
+        <v>30.82732629776001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3.411200537376167</v>
+      </c>
+      <c r="C6">
+        <v>45.21434656218397</v>
+      </c>
+      <c r="D6">
+        <v>96.09463733097196</v>
+      </c>
+      <c r="E6">
+        <v>381845.0052481691</v>
+      </c>
+      <c r="F6">
+        <v>0.7879106998443604</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>3.631588047323126</v>
+      </c>
+      <c r="C7">
+        <v>43.93637871860499</v>
+      </c>
+      <c r="D7">
+        <v>95.60260677453289</v>
+      </c>
+      <c r="E7">
+        <v>705022.8846153846</v>
+      </c>
+      <c r="F7">
+        <v>19.32386422157288</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4.552069409931544</v>
+      </c>
+      <c r="C8">
+        <v>44.98453261083169</v>
+      </c>
+      <c r="D8">
+        <v>94.14491374934045</v>
+      </c>
+      <c r="E8">
+        <v>587812.8285076144</v>
+      </c>
+      <c r="F8">
+        <v>0.9608695507049561</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4.624908392953019</v>
+      </c>
+      <c r="C9">
+        <v>37.21478578818414</v>
+      </c>
+      <c r="D9">
+        <v>97.34050567466063</v>
+      </c>
+      <c r="E9">
+        <v>524120.2836259599</v>
+      </c>
+      <c r="F9">
+        <v>5.440695285797119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4.788753364344213</v>
+      </c>
+      <c r="C10">
+        <v>34.76758445469479</v>
+      </c>
+      <c r="D10">
+        <v>92.88546466828674</v>
+      </c>
+      <c r="E10">
+        <v>720464.4869941629</v>
+      </c>
+      <c r="F10">
+        <v>0.6333537101745605</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.1823398509294921</v>
-      </c>
-      <c r="C3">
-        <v>223616.3198072623</v>
-      </c>
-      <c r="D3">
-        <v>1.574711421026846</v>
-      </c>
-      <c r="E3">
-        <v>1.570625066757202</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>15.35210413435077</v>
-      </c>
-      <c r="C4">
-        <v>1778394.345571958</v>
-      </c>
-      <c r="D4">
-        <v>10.81755082628072</v>
-      </c>
-      <c r="E4">
-        <v>1.177431344985962</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B11">
+        <v>6.017892815620791</v>
+      </c>
+      <c r="C11">
+        <v>42.47154192452471</v>
+      </c>
+      <c r="D11">
+        <v>98.04168355773963</v>
+      </c>
+      <c r="E11">
+        <v>719329.2871952285</v>
+      </c>
+      <c r="F11">
+        <v>11.43443584442139</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>38.99280410540776</v>
-      </c>
-      <c r="C5">
-        <v>326669.9778084503</v>
-      </c>
-      <c r="D5">
-        <v>2.958827600627211</v>
-      </c>
-      <c r="E5">
-        <v>0.3540551662445068</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>40.88912336847373</v>
-      </c>
-      <c r="C6">
-        <v>161774.2257482778</v>
-      </c>
-      <c r="D6">
-        <v>2.382117761018227</v>
-      </c>
-      <c r="E6">
-        <v>0.77557373046875</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>43.93637871860499</v>
-      </c>
-      <c r="C7">
-        <v>706589.4326923077</v>
-      </c>
-      <c r="D7">
-        <v>3.497642664497349</v>
-      </c>
-      <c r="E7">
-        <v>11.25408387184143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>43.93637871860499</v>
-      </c>
-      <c r="C8">
-        <v>692427.8846153846</v>
-      </c>
-      <c r="D8">
-        <v>3.43389014830013</v>
-      </c>
-      <c r="E8">
-        <v>11.2261004447937</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>44.98453264391322</v>
-      </c>
-      <c r="C9">
-        <v>587812.8277159224</v>
-      </c>
-      <c r="D9">
-        <v>4.552069408537242</v>
-      </c>
-      <c r="E9">
-        <v>0.6276826858520508</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>47.14690406974589</v>
-      </c>
-      <c r="C10">
-        <v>628077.8326711725</v>
-      </c>
-      <c r="D10">
-        <v>3.009158424376986</v>
-      </c>
-      <c r="E10">
-        <v>11.21123123168945</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>51.45485005163925</v>
-      </c>
-      <c r="C11">
-        <v>473330.9948886893</v>
-      </c>
-      <c r="D11">
-        <v>4.377904147429819</v>
-      </c>
-      <c r="E11">
-        <v>0.3766131401062012</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
         <v>6</v>
       </c>
     </row>
